--- a/medicine/Psychotrope/Isohumulone/Isohumulone.xlsx
+++ b/medicine/Psychotrope/Isohumulone/Isohumulone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les isohumulones sont des composés à la saveur amère présents dans la bière. Ce sont des acides alpha qui contribuent au goût de la bière et à sa stabilité.
@@ -512,10 +524,12 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que connus sous le nom d'alpha-acides, ce ne sont pas des acides car la fonction hydroxyle est en position alpha du groupe carbonyle et non sur le même carbone.
-Les isohumulones proviennent de l'isomérisation de l'humulone au cours de la cuisson, elle-même issue de la lupuline qui provient du houblon[2]. Les isohumulones issues de l'humulone sont au nombre de 2 : la cis-isohumulone et la trans-isohumulone.
+Les isohumulones proviennent de l'isomérisation de l'humulone au cours de la cuisson, elle-même issue de la lupuline qui provient du houblon. Les isohumulones issues de l'humulone sont au nombre de 2 : la cis-isohumulone et la trans-isohumulone.
 Quand la bière est exposée à la lumière, les isohumulones se décomposent en présence de riboflavine en 3-méthylbut-2-ène-1-thiol (un thiol à l'odeur nauséabonde, produisant le "goût de moufette") et en acide déshydrohumulinique.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les brasseurs, pour mesurer l'amertume de leurs bières, utilisent l'International bitterness unit (IBU), une unité de poids basée sur la quantité d'isohumulone : une part par million (ppm) d'isohumulone (acide Þ) = 1 IBU. Plus l'IBU est élevé, plus l'amertume est importante.
 Les isohumulones stabilisent la bière, lui procurent son amertume et en stabilisent la mousse.
